--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.111820.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.111820.xlsx_with_dialog_acts.xlsx
@@ -1189,12 +1189,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1481,12 +1481,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2363,12 +2363,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2573,12 +2573,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2825,12 +2825,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3077,12 +3077,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3371,12 +3371,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3539,12 +3539,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3917,12 +3917,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5009,12 +5009,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5051,12 +5051,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5219,12 +5219,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5345,12 +5345,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6185,12 +6185,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6227,12 +6227,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6441,12 +6441,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6609,12 +6609,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6651,12 +6651,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6777,12 +6777,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7617,12 +7617,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7701,12 +7701,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8541,12 +8541,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8583,12 +8583,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8835,12 +8835,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9507,12 +9507,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9759,12 +9759,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9927,12 +9927,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10095,12 +10095,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10641,12 +10641,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10935,12 +10935,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11015,12 +11015,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11175,12 +11175,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11535,12 +11535,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11815,12 +11815,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12335,12 +12335,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12615,12 +12615,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13095,12 +13095,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13295,12 +13295,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13335,12 +13335,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14215,12 +14215,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14895,12 +14895,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15215,12 +15215,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15535,12 +15535,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15615,12 +15615,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15975,12 +15975,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16375,12 +16375,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16535,12 +16535,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16615,12 +16615,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17535,12 +17535,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18295,12 +18295,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18335,12 +18335,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18775,12 +18775,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19135,12 +19135,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19935,12 +19935,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20015,12 +20015,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20135,12 +20135,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20295,12 +20295,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20337,12 +20337,12 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20379,12 +20379,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
